--- a/Simulink 2019b V1/Documents/Voltage Comparison123.xlsx
+++ b/Simulink 2019b V1/Documents/Voltage Comparison123.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asuresh4\Desktop\Final Github\IEEE test Feeders\Simulink\V 2019\123\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arun_Files\GitHub\Final Github\Final Github\IEEE test Feeders\Simulink\V2019b Discrete\IEEE 123 Bus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E6E4D1-6E5C-4955-9F85-FC69F0924037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE54BDE-07EB-41E9-BD9A-A9522C25F068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="123" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -436,12 +434,12 @@
       <selection activeCell="G3" sqref="G3:I132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="1" max="4" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -455,7 +453,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -481,7 +479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>150</v>
       </c>
@@ -498,16 +496,16 @@
         <v>150</v>
       </c>
       <c r="G3" s="4">
-        <v>0.99974029871649095</v>
+        <v>0.99973960238080495</v>
       </c>
       <c r="H3" s="4">
-        <v>0.99982077621367005</v>
+        <v>0.99982127941764498</v>
       </c>
       <c r="I3" s="4">
-        <v>0.99979301640248197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.99979242072769203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -524,16 +522,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="4">
-        <v>1.04276308143576</v>
+        <v>1.0454788011473599</v>
       </c>
       <c r="H4" s="4">
-        <v>1.0437476869237301</v>
+        <v>1.04556438987001</v>
       </c>
       <c r="I4" s="4">
-        <v>1.04331460709048</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.04553413129579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>149</v>
       </c>
@@ -550,16 +548,16 @@
         <v>149</v>
       </c>
       <c r="G5" s="4">
-        <v>1.04276308143576</v>
+        <v>1.0454788011473599</v>
       </c>
       <c r="H5" s="4">
-        <v>1.0437476869237301</v>
+        <v>1.04556438987001</v>
       </c>
       <c r="I5" s="4">
-        <v>1.04331460709048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.04553413129579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -576,16 +574,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="4">
-        <v>1.0299885808565601</v>
+        <v>1.03268112944836</v>
       </c>
       <c r="H6" s="4">
-        <v>1.04098159383836</v>
+        <v>1.04282579852142</v>
       </c>
       <c r="I6" s="4">
-        <v>1.0342703174543799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.03643765131472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -605,13 +603,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>1.04090173350773</v>
+        <v>1.04274580015817</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -634,10 +632,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>1.03370402064955</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0358701756366799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -660,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>1.0335227735382999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.03568855088226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -686,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>1.0332624032149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.03542763066344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -712,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <v>1.0330359542891201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0352007060392101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -732,16 +730,16 @@
         <v>7</v>
       </c>
       <c r="G12" s="4">
-        <v>1.0214787155776901</v>
+        <v>1.0241550068866401</v>
       </c>
       <c r="H12" s="4">
-        <v>1.0379463131715501</v>
+        <v>1.0398068711130599</v>
       </c>
       <c r="I12" s="4">
-        <v>1.02813471906184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.03026371970686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -758,16 +756,16 @@
         <v>8</v>
       </c>
       <c r="G13" s="4">
-        <v>1.0159786043627901</v>
+        <v>1.01864470383104</v>
       </c>
       <c r="H13" s="4">
-        <v>1.0358690695326001</v>
+        <v>1.03774026046156</v>
       </c>
       <c r="I13" s="4">
-        <v>1.02406894696747</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.02617240676191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -787,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <v>1.03576689695423</v>
+        <v>1.0376379060418199</v>
       </c>
       <c r="I14" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -810,16 +808,16 @@
         <v>13</v>
       </c>
       <c r="G15" s="4">
-        <v>1.0087949702474801</v>
+        <v>1.0114416802211199</v>
       </c>
       <c r="H15" s="4">
-        <v>1.0324814498677699</v>
+        <v>1.03437101537514</v>
       </c>
       <c r="I15" s="4">
-        <v>1.01800109853823</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0200654019387301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>152</v>
       </c>
@@ -836,16 +834,16 @@
         <v>152</v>
       </c>
       <c r="G16" s="4">
-        <v>1.0073962432845101</v>
+        <v>1.01144153972786</v>
       </c>
       <c r="H16" s="4">
-        <v>1.03142708570174</v>
+        <v>1.0343709105071801</v>
       </c>
       <c r="I16" s="4">
-        <v>1.0168716446749799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0200652885627799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>52</v>
       </c>
@@ -862,16 +860,16 @@
         <v>52</v>
       </c>
       <c r="G17" s="4">
-        <v>1.0019228139751799</v>
+        <v>1.0059594814724699</v>
       </c>
       <c r="H17" s="4">
-        <v>1.02922509014193</v>
+        <v>1.0321976385642899</v>
       </c>
       <c r="I17" s="4">
-        <v>1.01321438526664</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.01636530440457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>53</v>
       </c>
@@ -888,16 +886,16 @@
         <v>53</v>
       </c>
       <c r="G18" s="4">
-        <v>0.99946384093044305</v>
+        <v>1.0034974521097599</v>
       </c>
       <c r="H18" s="4">
-        <v>1.0280021577326099</v>
+        <v>1.03098839799592</v>
       </c>
       <c r="I18" s="4">
-        <v>1.01142216413291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.01455177814558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>54</v>
       </c>
@@ -914,16 +912,16 @@
         <v>54</v>
       </c>
       <c r="G19" s="4">
-        <v>0.99809483146908196</v>
+        <v>1.00212725414604</v>
       </c>
       <c r="H19" s="4">
-        <v>1.0271593379266799</v>
+        <v>1.03015376837572</v>
       </c>
       <c r="I19" s="4">
-        <v>1.01032318813491</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.01343952262262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>55</v>
       </c>
@@ -940,16 +938,16 @@
         <v>55</v>
       </c>
       <c r="G20" s="4">
-        <v>0.997891226510767</v>
+        <v>1.00192276350311</v>
       </c>
       <c r="H20" s="4">
-        <v>1.02706431551073</v>
+        <v>1.0300585210933899</v>
       </c>
       <c r="I20" s="4">
-        <v>1.0103949061920501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.01351150783372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>56</v>
       </c>
@@ -966,16 +964,16 @@
         <v>56</v>
       </c>
       <c r="G21" s="4">
-        <v>0.99786669413808604</v>
+        <v>1.0018980680923</v>
       </c>
       <c r="H21" s="4">
-        <v>1.02688005609273</v>
+        <v>1.0298737162667699</v>
       </c>
       <c r="I21" s="4">
-        <v>1.01048717769496</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0136040638693</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>57</v>
       </c>
@@ -992,16 +990,16 @@
         <v>57</v>
       </c>
       <c r="G22" s="4">
-        <v>0.99453840619968403</v>
+        <v>0.99856887074106304</v>
       </c>
       <c r="H22" s="4">
-        <v>1.02493069349805</v>
+        <v>1.0279480912214101</v>
       </c>
       <c r="I22" s="4">
-        <v>1.0071657070453199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.01024457543582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>58</v>
       </c>
@@ -1021,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <v>1.02470606996106</v>
+        <v>1.0277228056846399</v>
       </c>
       <c r="I23" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>59</v>
       </c>
@@ -1047,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <v>1.02470157753353</v>
+        <v>1.02771830002959</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>60</v>
       </c>
@@ -1070,16 +1068,16 @@
         <v>60</v>
       </c>
       <c r="G25" s="4">
-        <v>0.98714572444476001</v>
+        <v>0.99117417477124903</v>
       </c>
       <c r="H25" s="4">
-        <v>1.0212012040951299</v>
+        <v>1.02426950111365</v>
       </c>
       <c r="I25" s="4">
-        <v>0.99995161827095802</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0029490486538</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>160</v>
       </c>
@@ -1096,16 +1094,16 @@
         <v>160</v>
       </c>
       <c r="G26" s="4">
-        <v>0.98609517637283495</v>
+        <v>0.99117406922877305</v>
       </c>
       <c r="H26" s="4">
-        <v>1.02044409618794</v>
+        <v>1.02426942606084</v>
       </c>
       <c r="I26" s="4">
-        <v>0.99912031381925803</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0029489651903101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -1122,16 +1120,16 @@
         <v>2</v>
       </c>
       <c r="G27" s="4">
-        <v>1.0356686507772499</v>
+        <v>1.04101756876647</v>
       </c>
       <c r="H27" s="4">
-        <v>1.0323418608664801</v>
+        <v>1.02972261663473</v>
       </c>
       <c r="I27" s="4">
-        <v>1.02880461636948</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.03272042495349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>67</v>
       </c>
@@ -1148,16 +1146,16 @@
         <v>67</v>
       </c>
       <c r="G28" s="4">
-        <v>1.0356686507772499</v>
+        <v>1.04101756876647</v>
       </c>
       <c r="H28" s="4">
-        <v>1.0323418608664801</v>
+        <v>1.02972261663473</v>
       </c>
       <c r="I28" s="4">
-        <v>1.02880461636948</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.03272042495349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>68</v>
       </c>
@@ -1174,7 +1172,7 @@
         <v>68</v>
       </c>
       <c r="G29" s="4">
-        <v>1.03512444998096</v>
+        <v>1.04047055761195</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
@@ -1183,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>69</v>
       </c>
@@ -1200,7 +1198,7 @@
         <v>69</v>
       </c>
       <c r="G30" s="4">
-        <v>1.03450101537705</v>
+        <v>1.0398439027152699</v>
       </c>
       <c r="H30" s="4">
         <v>0</v>
@@ -1209,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>70</v>
       </c>
@@ -1226,7 +1224,7 @@
         <v>70</v>
       </c>
       <c r="G31" s="4">
-        <v>1.0340590632870099</v>
+        <v>1.03939966631699</v>
       </c>
       <c r="H31" s="4">
         <v>0</v>
@@ -1235,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>71</v>
       </c>
@@ -1252,7 +1250,7 @@
         <v>71</v>
       </c>
       <c r="G32" s="4">
-        <v>1.03380978310272</v>
+        <v>1.0391490979267599</v>
       </c>
       <c r="H32" s="4">
         <v>0</v>
@@ -1261,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>72</v>
       </c>
@@ -1278,16 +1276,16 @@
         <v>72</v>
       </c>
       <c r="G33" s="4">
-        <v>1.03533515202143</v>
+        <v>1.04068984377923</v>
       </c>
       <c r="H33" s="4">
-        <v>1.03173060223149</v>
+        <v>1.0291106651341699</v>
       </c>
       <c r="I33" s="4">
-        <v>1.0294819600181599</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.03339379657435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>73</v>
       </c>
@@ -1310,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="I34" s="4">
-        <v>1.0280612967176399</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0319742352654799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>74</v>
       </c>
@@ -1336,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="I35" s="4">
-        <v>1.0274307940176399</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0313413005958401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>75</v>
       </c>
@@ -1362,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="I36" s="4">
-        <v>1.02707058337642</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.03097969891914</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>76</v>
       </c>
@@ -1382,16 +1380,16 @@
         <v>76</v>
       </c>
       <c r="G37" s="4">
-        <v>1.03509402559256</v>
+        <v>1.0404529298977301</v>
       </c>
       <c r="H37" s="4">
-        <v>1.03128922136059</v>
+        <v>1.0286688541534601</v>
       </c>
       <c r="I37" s="4">
-        <v>1.02997573704194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.03388478928063</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>77</v>
       </c>
@@ -1408,16 +1406,16 @@
         <v>77</v>
       </c>
       <c r="G38" s="4">
-        <v>1.03611029312322</v>
+        <v>1.0414822656701399</v>
       </c>
       <c r="H38" s="4">
-        <v>1.0323598387291499</v>
+        <v>1.0297337701382301</v>
       </c>
       <c r="I38" s="4">
-        <v>1.03098433458503</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0348927033262401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>78</v>
       </c>
@@ -1434,16 +1432,16 @@
         <v>78</v>
       </c>
       <c r="G39" s="4">
-        <v>1.0363830400962</v>
+        <v>1.0417583336848599</v>
       </c>
       <c r="H39" s="4">
-        <v>1.03276245783589</v>
+        <v>1.0301346352215699</v>
       </c>
       <c r="I39" s="4">
-        <v>1.0311693127825401</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0350776383647</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>79</v>
       </c>
@@ -1460,16 +1458,16 @@
         <v>79</v>
       </c>
       <c r="G40" s="4">
-        <v>1.0360787576962101</v>
+        <v>1.0414524772216101</v>
       </c>
       <c r="H40" s="4">
-        <v>1.0329137024539901</v>
+        <v>1.03028666719546</v>
       </c>
       <c r="I40" s="4">
-        <v>1.0311355404061999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0350437372942101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>80</v>
       </c>
@@ -1486,16 +1484,16 @@
         <v>80</v>
       </c>
       <c r="G41" s="4">
-        <v>1.0383223855557</v>
+        <v>1.0437167844208799</v>
       </c>
       <c r="H41" s="4">
-        <v>1.03435612830725</v>
+        <v>1.0317183180681899</v>
       </c>
       <c r="I41" s="4">
-        <v>1.03212112553525</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.03602947585684</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>81</v>
       </c>
@@ -1512,16 +1510,16 @@
         <v>81</v>
       </c>
       <c r="G42" s="4">
-        <v>1.04035178273604</v>
+        <v>1.0457655374802799</v>
       </c>
       <c r="H42" s="4">
-        <v>1.03659131423397</v>
+        <v>1.03394209294649</v>
       </c>
       <c r="I42" s="4">
-        <v>1.03275488853056</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0366639481667901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>82</v>
       </c>
@@ -1538,16 +1536,16 @@
         <v>82</v>
       </c>
       <c r="G43" s="4">
-        <v>1.0411663388049901</v>
+        <v>1.0465892611654499</v>
       </c>
       <c r="H43" s="4">
-        <v>1.03783055080898</v>
+        <v>1.0351753534721799</v>
       </c>
       <c r="I43" s="4">
-        <v>1.0335942809649199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0375056872353601</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>83</v>
       </c>
@@ -1564,16 +1562,16 @@
         <v>83</v>
       </c>
       <c r="G44" s="4">
-        <v>1.04232111283317</v>
+        <v>1.04775496763225</v>
       </c>
       <c r="H44" s="4">
-        <v>1.0389011445915299</v>
+        <v>1.0362391457576601</v>
       </c>
       <c r="I44" s="4">
-        <v>1.0344717893700801</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0383856472835</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>84</v>
       </c>
@@ -1596,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="4">
-        <v>1.0318390289073001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0357446123676</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>85</v>
       </c>
@@ -1622,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="I46" s="4">
-        <v>1.0314094467737001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.03531340263792</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>86</v>
       </c>
@@ -1642,16 +1640,16 @@
         <v>86</v>
       </c>
       <c r="G47" s="4">
-        <v>1.03398131506094</v>
+        <v>1.03933829802233</v>
       </c>
       <c r="H47" s="4">
-        <v>1.0295616686573701</v>
+        <v>1.02694930127962</v>
       </c>
       <c r="I47" s="4">
-        <v>1.03120376691065</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0351072665111301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>87</v>
       </c>
@@ -1668,16 +1666,16 @@
         <v>87</v>
       </c>
       <c r="G48" s="4">
-        <v>1.0333069346918</v>
+        <v>1.03866281420755</v>
       </c>
       <c r="H48" s="4">
-        <v>1.02875751880668</v>
+        <v>1.02614936059343</v>
       </c>
       <c r="I48" s="4">
-        <v>1.0318420629002001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0357423766220999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>88</v>
       </c>
@@ -1694,7 +1692,7 @@
         <v>88</v>
       </c>
       <c r="G49" s="4">
-        <v>1.0332817032377899</v>
+        <v>1.03863745856503</v>
       </c>
       <c r="H49" s="4">
         <v>0</v>
@@ -1703,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>89</v>
       </c>
@@ -1720,16 +1718,16 @@
         <v>89</v>
       </c>
       <c r="G50" s="4">
-        <v>1.0328635667063999</v>
+        <v>1.0382183626389101</v>
       </c>
       <c r="H50" s="4">
-        <v>1.02851093378172</v>
+        <v>1.02590344189581</v>
       </c>
       <c r="I50" s="4">
-        <v>1.0322194158071101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0361193352075999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>90</v>
       </c>
@@ -1749,13 +1747,13 @@
         <v>0</v>
       </c>
       <c r="H51" s="4">
-        <v>1.0284785948190001</v>
+        <v>1.02587123010101</v>
       </c>
       <c r="I51" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>91</v>
       </c>
@@ -1772,16 +1770,16 @@
         <v>91</v>
       </c>
       <c r="G52" s="4">
-        <v>1.0326370285383</v>
+        <v>1.0379904751675899</v>
       </c>
       <c r="H52" s="4">
-        <v>1.0281872851900999</v>
+        <v>1.0255806508179199</v>
       </c>
       <c r="I52" s="4">
-        <v>1.0324387210378001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0363386517831901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>92</v>
       </c>
@@ -1804,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="I53" s="4">
-        <v>1.0323955058371099</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.03629525447625</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>93</v>
       </c>
@@ -1824,16 +1822,16 @@
         <v>93</v>
       </c>
       <c r="G54" s="4">
-        <v>1.0322936009138199</v>
+        <v>1.03764537417253</v>
       </c>
       <c r="H54" s="4">
-        <v>1.02803626557381</v>
+        <v>1.0254312240665799</v>
       </c>
       <c r="I54" s="4">
-        <v>1.0325557611856</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.036455266648</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>94</v>
       </c>
@@ -1850,7 +1848,7 @@
         <v>94</v>
       </c>
       <c r="G55" s="4">
-        <v>1.0320447441834399</v>
+        <v>1.0373952273318701</v>
       </c>
       <c r="H55" s="4">
         <v>0</v>
@@ -1859,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>95</v>
       </c>
@@ -1876,16 +1874,16 @@
         <v>95</v>
       </c>
       <c r="G56" s="4">
-        <v>1.03223982895844</v>
+        <v>1.03759146194434</v>
       </c>
       <c r="H56" s="4">
-        <v>1.0276336613706201</v>
+        <v>1.0250298431742599</v>
       </c>
       <c r="I56" s="4">
-        <v>1.0327570466832401</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.03665598234265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>96</v>
       </c>
@@ -1905,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="H57" s="4">
-        <v>1.02754355595186</v>
+        <v>1.02493997367726</v>
       </c>
       <c r="I57" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>97</v>
       </c>
@@ -1928,16 +1926,16 @@
         <v>97</v>
       </c>
       <c r="G58" s="4">
-        <v>1.03420032004481</v>
+        <v>1.03954050492217</v>
       </c>
       <c r="H58" s="4">
-        <v>1.0315829877834799</v>
+        <v>1.0289712096369501</v>
       </c>
       <c r="I58" s="4">
-        <v>1.02776775844195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0316750000941901</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>197</v>
       </c>
@@ -1954,16 +1952,16 @@
         <v>197</v>
       </c>
       <c r="G59" s="4">
-        <v>1.03395120792211</v>
+        <v>1.0395404798771699</v>
       </c>
       <c r="H59" s="4">
-        <v>1.0314401560308</v>
+        <v>1.02897119538805</v>
       </c>
       <c r="I59" s="4">
-        <v>1.02759013381137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0316749822615501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>101</v>
       </c>
@@ -1980,16 +1978,16 @@
         <v>101</v>
       </c>
       <c r="G60" s="4">
-        <v>1.0331036238783899</v>
+        <v>1.0386880094555799</v>
       </c>
       <c r="H60" s="4">
-        <v>1.0312464634852501</v>
+        <v>1.0287818887965501</v>
       </c>
       <c r="I60" s="4">
-        <v>1.0269617485919</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0310423846763901</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>102</v>
       </c>
@@ -2012,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="4">
-        <v>1.02576495408419</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.02983893459178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>103</v>
       </c>
@@ -2038,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="I62" s="4">
-        <v>1.0251808907912101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.02925246740953</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>104</v>
       </c>
@@ -2064,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="I63" s="4">
-        <v>1.02455216246586</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0286211010148101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>105</v>
       </c>
@@ -2084,16 +2082,16 @@
         <v>105</v>
       </c>
       <c r="G64" s="4">
-        <v>1.0321719100782201</v>
+        <v>1.0377509214335401</v>
       </c>
       <c r="H64" s="4">
-        <v>1.03103354747979</v>
+        <v>1.02857375584658</v>
       </c>
       <c r="I64" s="4">
-        <v>1.0262705317529499</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0303465638956999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>106</v>
       </c>
@@ -2113,13 +2111,13 @@
         <v>0</v>
       </c>
       <c r="H65" s="4">
-        <v>1.0306269769137699</v>
+        <v>1.02816815640721</v>
       </c>
       <c r="I65" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>107</v>
       </c>
@@ -2139,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <v>1.03010762031073</v>
+        <v>1.0276500318746999</v>
       </c>
       <c r="I66" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>108</v>
       </c>
@@ -2162,16 +2160,16 @@
         <v>108</v>
       </c>
       <c r="G67" s="4">
-        <v>1.03064365810165</v>
+        <v>1.03621442527457</v>
       </c>
       <c r="H67" s="4">
-        <v>1.03179173339385</v>
+        <v>1.0293356697384299</v>
       </c>
       <c r="I67" s="4">
-        <v>1.02610378531847</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.030179429413</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>109</v>
       </c>
@@ -2188,7 +2186,7 @@
         <v>109</v>
       </c>
       <c r="G68" s="4">
-        <v>1.0292234092650401</v>
+        <v>1.0347864966900899</v>
       </c>
       <c r="H68" s="4">
         <v>0</v>
@@ -2197,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>110</v>
       </c>
@@ -2214,7 +2212,7 @@
         <v>110</v>
       </c>
       <c r="G69" s="4">
-        <v>1.02854741003785</v>
+        <v>1.03410684030255</v>
       </c>
       <c r="H69" s="4">
         <v>0</v>
@@ -2223,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>111</v>
       </c>
@@ -2240,7 +2238,7 @@
         <v>111</v>
       </c>
       <c r="G70" s="4">
-        <v>1.0282881930616099</v>
+        <v>1.0338462224515499</v>
       </c>
       <c r="H70" s="4">
         <v>0</v>
@@ -2249,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>112</v>
       </c>
@@ -2266,7 +2264,7 @@
         <v>112</v>
       </c>
       <c r="G71" s="4">
-        <v>1.0283221081418099</v>
+        <v>1.0338803190694099</v>
       </c>
       <c r="H71" s="4">
         <v>0</v>
@@ -2275,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>113</v>
       </c>
@@ -2292,7 +2290,7 @@
         <v>113</v>
       </c>
       <c r="G72" s="4">
-        <v>1.0276125603844699</v>
+        <v>1.03316692986077</v>
       </c>
       <c r="H72" s="4">
         <v>0</v>
@@ -2301,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>114</v>
       </c>
@@ -2318,7 +2316,7 @@
         <v>114</v>
       </c>
       <c r="G73" s="4">
-        <v>1.0274661648005701</v>
+        <v>1.03301974175827</v>
       </c>
       <c r="H73" s="4">
         <v>0</v>
@@ -2327,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>300</v>
       </c>
@@ -2344,16 +2342,16 @@
         <v>300</v>
       </c>
       <c r="G74" s="4">
-        <v>1.0306437404087601</v>
+        <v>1.0362144889315199</v>
       </c>
       <c r="H74" s="4">
-        <v>1.0317918816125899</v>
+        <v>1.0293356236228299</v>
       </c>
       <c r="I74" s="4">
-        <v>1.02610365484076</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0301796165893899</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>98</v>
       </c>
@@ -2370,16 +2368,16 @@
         <v>98</v>
       </c>
       <c r="G75" s="4">
-        <v>1.0339644442151099</v>
+        <v>1.03930331144342</v>
       </c>
       <c r="H75" s="4">
-        <v>1.0313518800891801</v>
+        <v>1.0287417761863999</v>
       </c>
       <c r="I75" s="4">
-        <v>1.02754288325354</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0314483173270399</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>99</v>
       </c>
@@ -2396,16 +2394,16 @@
         <v>99</v>
       </c>
       <c r="G76" s="4">
-        <v>1.0342349132075801</v>
+        <v>1.0395749908088501</v>
       </c>
       <c r="H76" s="4">
-        <v>1.0305204561522701</v>
+        <v>1.0279122594610499</v>
       </c>
       <c r="I76" s="4">
-        <v>1.0271761086889599</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0310778220721999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>100</v>
       </c>
@@ -2422,16 +2420,16 @@
         <v>100</v>
       </c>
       <c r="G77" s="4">
-        <v>1.0344377399936899</v>
+        <v>1.0397786399415601</v>
       </c>
       <c r="H77" s="4">
-        <v>1.03047065873901</v>
+        <v>1.02786229209552</v>
       </c>
       <c r="I77" s="4">
-        <v>1.02677394824695</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.03067425060053</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>450</v>
       </c>
@@ -2448,16 +2446,16 @@
         <v>450</v>
       </c>
       <c r="G78" s="4">
-        <v>1.0344378114728601</v>
+        <v>1.03977868989432</v>
       </c>
       <c r="H78" s="4">
-        <v>1.03047069666215</v>
+        <v>1.02786234113004</v>
       </c>
       <c r="I78" s="4">
-        <v>1.02677395609052</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0306743015250299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>61</v>
       </c>
@@ -2474,16 +2472,16 @@
         <v>61</v>
       </c>
       <c r="G79" s="4">
-        <v>0.98714296612592201</v>
+        <v>0.99117141084210503</v>
       </c>
       <c r="H79" s="4">
-        <v>1.02119836910933</v>
+        <v>1.0242667021701699</v>
       </c>
       <c r="I79" s="4">
-        <v>0.99994880585605095</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0029462263639799</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2500,16 +2498,16 @@
         <v>3</v>
       </c>
       <c r="G80" s="4">
-        <v>0.98714267474477402</v>
+        <v>0.99117141081288296</v>
       </c>
       <c r="H80" s="4">
-        <v>1.02119807866099</v>
+        <v>1.0242667021410601</v>
       </c>
       <c r="I80" s="4">
-        <v>0.99994851860008405</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.00294622633518</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>610</v>
       </c>
@@ -2526,16 +2524,16 @@
         <v>610</v>
       </c>
       <c r="G81" s="4">
-        <v>0.99740014209911299</v>
+        <v>1.00054832985716</v>
       </c>
       <c r="H81" s="4">
-        <v>1.01062764656766</v>
+        <v>1.01383502350473</v>
       </c>
       <c r="I81" s="4">
-        <v>1.0000148196918801</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0037368637120501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>62</v>
       </c>
@@ -2552,16 +2550,16 @@
         <v>62</v>
       </c>
       <c r="G82" s="4">
-        <v>0.98646648365677803</v>
+        <v>0.99049167194045795</v>
       </c>
       <c r="H82" s="4">
-        <v>1.0200265102146799</v>
+        <v>1.0230914935756901</v>
       </c>
       <c r="I82" s="4">
-        <v>0.99790045524133797</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0008918352115099</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>63</v>
       </c>
@@ -2578,16 +2576,16 @@
         <v>63</v>
       </c>
       <c r="G83" s="4">
-        <v>0.98591453436364596</v>
+        <v>0.98993713037784203</v>
       </c>
       <c r="H83" s="4">
-        <v>1.0191311350110299</v>
+        <v>1.0221935186247599</v>
       </c>
       <c r="I83" s="4">
-        <v>0.99689927230863695</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.99988765911037503</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>64</v>
       </c>
@@ -2604,16 +2602,16 @@
         <v>64</v>
       </c>
       <c r="G84" s="4">
-        <v>0.98566937924895803</v>
+        <v>0.98969029445837298</v>
       </c>
       <c r="H84" s="4">
-        <v>1.01720096103047</v>
+        <v>1.0202578103228299</v>
       </c>
       <c r="I84" s="4">
-        <v>0.99474714945704201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.99772879545687099</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>65</v>
       </c>
@@ -2630,16 +2628,16 @@
         <v>65</v>
       </c>
       <c r="G85" s="4">
-        <v>0.98506717637893204</v>
+        <v>0.989085896127742</v>
       </c>
       <c r="H85" s="4">
-        <v>1.0168482422940901</v>
+        <v>1.0199045371245701</v>
       </c>
       <c r="I85" s="4">
-        <v>0.99177982435984402</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.99475190151763204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>66</v>
       </c>
@@ -2656,16 +2654,16 @@
         <v>66</v>
       </c>
       <c r="G86" s="4">
-        <v>0.98533910613111397</v>
+        <v>0.98935891901135498</v>
       </c>
       <c r="H86" s="4">
-        <v>1.01708677636919</v>
+        <v>1.0201440510581501</v>
       </c>
       <c r="I86" s="4">
-        <v>0.99029766154867804</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.99326527578245705</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>18</v>
       </c>
@@ -2682,16 +2680,16 @@
         <v>18</v>
       </c>
       <c r="G87" s="4">
-        <v>0.999103443410709</v>
+        <v>1.00171755789938</v>
       </c>
       <c r="H87" s="4">
-        <v>1.02810551771977</v>
+        <v>1.0299865803522601</v>
       </c>
       <c r="I87" s="4">
-        <v>1.0116422549163899</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0136940660473499</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>135</v>
       </c>
@@ -2708,16 +2706,16 @@
         <v>135</v>
       </c>
       <c r="G88" s="4">
-        <v>0.99861235173604501</v>
+        <v>1.00171750864702</v>
       </c>
       <c r="H88" s="4">
-        <v>1.0276307357457599</v>
+        <v>1.0299865327737101</v>
       </c>
       <c r="I88" s="4">
-        <v>1.0112942350399301</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.01369403116498</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>35</v>
       </c>
@@ -2734,16 +2732,16 @@
         <v>35</v>
       </c>
       <c r="G89" s="4">
-        <v>0.99599008139907497</v>
+        <v>0.999085948075633</v>
       </c>
       <c r="H89" s="4">
-        <v>1.02511804023303</v>
+        <v>1.0274687301055401</v>
       </c>
       <c r="I89" s="4">
-        <v>1.00990430799707</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.01230134687357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>36</v>
       </c>
@@ -2760,16 +2758,16 @@
         <v>36</v>
       </c>
       <c r="G90" s="4">
-        <v>0.99552421375467304</v>
+        <v>0.99814759577426204</v>
       </c>
       <c r="H90" s="4">
-        <v>1.0246385624113299</v>
+        <v>1.0269695418007201</v>
       </c>
       <c r="I90" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>37</v>
       </c>
@@ -2786,7 +2784,7 @@
         <v>37</v>
       </c>
       <c r="G91" s="4">
-        <v>0.99526241063904697</v>
+        <v>0.99788510273942499</v>
       </c>
       <c r="H91" s="4">
         <v>0</v>
@@ -2795,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>38</v>
       </c>
@@ -2815,13 +2813,13 @@
         <v>0</v>
       </c>
       <c r="H92" s="4">
-        <v>1.02441401868829</v>
+        <v>1.02674448712305</v>
       </c>
       <c r="I92" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>39</v>
       </c>
@@ -2841,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="H93" s="4">
-        <v>1.0242680768916199</v>
+        <v>1.02659821332561</v>
       </c>
       <c r="I93" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>40</v>
       </c>
@@ -2864,16 +2862,16 @@
         <v>40</v>
       </c>
       <c r="G94" s="4">
-        <v>0.99466683412447399</v>
+        <v>0.99775761036998001</v>
       </c>
       <c r="H94" s="4">
-        <v>1.0237642463833401</v>
+        <v>1.02611247248633</v>
       </c>
       <c r="I94" s="4">
-        <v>1.00884785811304</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.01124271373685</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>41</v>
       </c>
@@ -2896,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="I95" s="4">
-        <v>1.0087041330604201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.01109864501322</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>42</v>
       </c>
@@ -2916,16 +2914,16 @@
         <v>42</v>
       </c>
       <c r="G96" s="4">
-        <v>0.99326113196223198</v>
+        <v>0.99634661127586199</v>
       </c>
       <c r="H96" s="4">
-        <v>1.02243193222852</v>
+        <v>1.0247777470461401</v>
       </c>
       <c r="I96" s="4">
-        <v>1.00795638063418</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0103494702554701</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>43</v>
       </c>
@@ -2945,13 +2943,13 @@
         <v>0</v>
       </c>
       <c r="H97" s="4">
-        <v>1.02198387160622</v>
+        <v>1.0243286608979201</v>
       </c>
       <c r="I97" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>44</v>
       </c>
@@ -2968,16 +2966,16 @@
         <v>44</v>
       </c>
       <c r="G98" s="4">
-        <v>0.99230204936578803</v>
+        <v>0.99538385827936804</v>
       </c>
       <c r="H98" s="4">
-        <v>1.02156872852819</v>
+        <v>1.02391303127363</v>
       </c>
       <c r="I98" s="4">
-        <v>1.0071247043965099</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0095160940411601</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>45</v>
       </c>
@@ -2994,7 +2992,7 @@
         <v>45</v>
       </c>
       <c r="G99" s="4">
-        <v>0.99212807579075701</v>
+        <v>0.99520934470498001</v>
       </c>
       <c r="H99" s="4">
         <v>0</v>
@@ -3003,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>46</v>
       </c>
@@ -3020,7 +3018,7 @@
         <v>46</v>
       </c>
       <c r="G100" s="4">
-        <v>0.99199760515324698</v>
+        <v>0.99507846904796005</v>
       </c>
       <c r="H100" s="4">
         <v>0</v>
@@ -3029,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>47</v>
       </c>
@@ -3046,16 +3044,16 @@
         <v>47</v>
       </c>
       <c r="G101" s="4">
-        <v>0.99115965954592899</v>
+        <v>0.99423673461541195</v>
       </c>
       <c r="H101" s="4">
-        <v>1.01985703958105</v>
+        <v>1.02219804169364</v>
       </c>
       <c r="I101" s="4">
-        <v>1.00577624180979</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0081648388420701</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>48</v>
       </c>
@@ -3072,16 +3070,16 @@
         <v>48</v>
       </c>
       <c r="G102" s="4">
-        <v>0.99142719285966097</v>
+        <v>0.99450541765062195</v>
       </c>
       <c r="H102" s="4">
-        <v>1.0203287292804</v>
+        <v>1.02267065526779</v>
       </c>
       <c r="I102" s="4">
-        <v>1.0061223820330101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.00851169617676</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>49</v>
       </c>
@@ -3098,16 +3096,16 @@
         <v>49</v>
       </c>
       <c r="G103" s="4">
-        <v>0.99092816712688803</v>
+        <v>0.99400415989881497</v>
       </c>
       <c r="H103" s="4">
-        <v>1.0192976160467</v>
+        <v>1.0216374952959999</v>
       </c>
       <c r="I103" s="4">
-        <v>1.0054119812731901</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0077998222161799</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>50</v>
       </c>
@@ -3124,16 +3122,16 @@
         <v>50</v>
       </c>
       <c r="G104" s="4">
-        <v>0.99093173560855197</v>
+        <v>0.99400763893464095</v>
       </c>
       <c r="H104" s="4">
-        <v>1.01933699230084</v>
+        <v>1.02167702580652</v>
       </c>
       <c r="I104" s="4">
-        <v>1.0050655730519999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0074526245400099</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>51</v>
       </c>
@@ -3150,16 +3148,16 @@
         <v>51</v>
       </c>
       <c r="G105" s="4">
-        <v>0.99077011481004096</v>
+        <v>0.99384551691777401</v>
       </c>
       <c r="H105" s="4">
-        <v>1.01941759467661</v>
+        <v>1.0217578452843099</v>
       </c>
       <c r="I105" s="4">
-        <v>1.0050471142237301</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.00743414954566</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>151</v>
       </c>
@@ -3176,16 +3174,16 @@
         <v>151</v>
       </c>
       <c r="G106" s="4">
-        <v>0.99077013628613797</v>
+        <v>0.993845540193666</v>
       </c>
       <c r="H106" s="4">
-        <v>1.01941766591147</v>
+        <v>1.02175787187748</v>
       </c>
       <c r="I106" s="4">
-        <v>1.0050470929353901</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0074341437368199</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>19</v>
       </c>
@@ -3202,7 +3200,7 @@
         <v>19</v>
       </c>
       <c r="G107" s="4">
-        <v>0.99866566415450697</v>
+        <v>1.0012786332630099</v>
       </c>
       <c r="H107" s="4">
         <v>0</v>
@@ -3211,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>20</v>
       </c>
@@ -3228,7 +3226,7 @@
         <v>20</v>
       </c>
       <c r="G108" s="4">
-        <v>0.99838115495634305</v>
+        <v>1.0009933796942001</v>
       </c>
       <c r="H108" s="4">
         <v>0</v>
@@ -3237,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>21</v>
       </c>
@@ -3254,16 +3252,16 @@
         <v>21</v>
       </c>
       <c r="G109" s="4">
-        <v>0.99846999604134101</v>
+        <v>1.0010820737185799</v>
       </c>
       <c r="H109" s="4">
-        <v>1.02813846178774</v>
+        <v>1.0300201194926299</v>
       </c>
       <c r="I109" s="4">
-        <v>1.01053208070384</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.01258179459474</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>22</v>
       </c>
@@ -3283,13 +3281,13 @@
         <v>0</v>
       </c>
       <c r="H110" s="4">
-        <v>1.02766538017548</v>
+        <v>1.02954617438593</v>
       </c>
       <c r="I110" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>23</v>
       </c>
@@ -3306,16 +3304,16 @@
         <v>23</v>
       </c>
       <c r="G111" s="4">
-        <v>0.99798784109369798</v>
+        <v>1.00059841910853</v>
       </c>
       <c r="H111" s="4">
-        <v>1.0285013299072301</v>
+        <v>1.03038409164193</v>
       </c>
       <c r="I111" s="4">
-        <v>1.0094391676344601</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0114868087072699</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>24</v>
       </c>
@@ -3338,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="I112" s="4">
-        <v>1.0089525837772899</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0109992399541301</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>25</v>
       </c>
@@ -3358,16 +3356,16 @@
         <v>25</v>
       </c>
       <c r="G113" s="4">
-        <v>0.99727596869285595</v>
+        <v>0.999884511046227</v>
       </c>
       <c r="H113" s="4">
-        <v>1.0289457633739001</v>
+        <v>1.03082976672826</v>
       </c>
       <c r="I113" s="4">
-        <v>1.00859919621368</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0106452799114301</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>28</v>
       </c>
@@ -3384,16 +3382,16 @@
         <v>28</v>
       </c>
       <c r="G114" s="4">
-        <v>0.99688796827838499</v>
+        <v>0.99949543478515901</v>
       </c>
       <c r="H114" s="4">
-        <v>1.02917199167075</v>
+        <v>1.03105662015862</v>
       </c>
       <c r="I114" s="4">
-        <v>1.0082774834214201</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.01032293771366</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>29</v>
       </c>
@@ -3410,16 +3408,16 @@
         <v>29</v>
       </c>
       <c r="G115" s="4">
-        <v>0.99669651856077901</v>
+        <v>0.99930339329176099</v>
       </c>
       <c r="H115" s="4">
-        <v>1.02931709542943</v>
+        <v>1.03120216072847</v>
       </c>
       <c r="I115" s="4">
-        <v>1.00783897629859</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.00988353026801</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>30</v>
       </c>
@@ -3436,16 +3434,16 @@
         <v>30</v>
       </c>
       <c r="G116" s="4">
-        <v>0.99692851951445005</v>
+        <v>0.99953589331097903</v>
       </c>
       <c r="H116" s="4">
-        <v>1.0292598710505101</v>
+        <v>1.0311448726486601</v>
       </c>
       <c r="I116" s="4">
-        <v>1.00737877696164</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0094223574616701</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>250</v>
       </c>
@@ -3462,16 +3460,16 @@
         <v>250</v>
       </c>
       <c r="G117" s="4">
-        <v>0.99692852241253505</v>
+        <v>0.99953589690565403</v>
       </c>
       <c r="H117" s="4">
-        <v>1.0292598735407601</v>
+        <v>1.0311448726599299</v>
       </c>
       <c r="I117" s="4">
-        <v>1.0073787850467499</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.00942235956452</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>4</v>
       </c>
@@ -3488,16 +3486,16 @@
         <v>4</v>
       </c>
       <c r="G118" s="4">
-        <v>0.99727596178296696</v>
+        <v>0.99988450412537799</v>
       </c>
       <c r="H118" s="4">
         <v>0</v>
       </c>
       <c r="I118" s="4">
-        <v>1.0023345979887199</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0043679730777699</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>26</v>
       </c>
@@ -3514,16 +3512,16 @@
         <v>26</v>
       </c>
       <c r="G119" s="4">
-        <v>0.99702329619339103</v>
+        <v>0.99963107995625899</v>
       </c>
       <c r="H119" s="4">
         <v>0</v>
       </c>
       <c r="I119" s="4">
-        <v>1.00183868800624</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0038711883909299</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>27</v>
       </c>
@@ -3540,16 +3538,16 @@
         <v>27</v>
       </c>
       <c r="G120" s="4">
-        <v>0.99666464622604201</v>
+        <v>0.99927149122144299</v>
       </c>
       <c r="H120" s="4">
         <v>0</v>
       </c>
       <c r="I120" s="4">
-        <v>1.00180866099146</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.00384116192511</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>33</v>
       </c>
@@ -3566,7 +3564,7 @@
         <v>33</v>
       </c>
       <c r="G121" s="4">
-        <v>0.99622788140451202</v>
+        <v>0.99883358393037602</v>
       </c>
       <c r="H121" s="4">
         <v>0</v>
@@ -3575,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>31</v>
       </c>
@@ -3598,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="I122" s="4">
-        <v>1.0016410903675901</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0036731934743</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>32</v>
       </c>
@@ -3624,10 +3622,10 @@
         <v>0</v>
       </c>
       <c r="I123" s="4">
-        <v>1.00150936825359</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0035412059047699</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>34</v>
       </c>
@@ -3650,10 +3648,10 @@
         <v>0</v>
       </c>
       <c r="I124" s="4">
-        <v>1.0176665616326901</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0197301773582399</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>15</v>
       </c>
@@ -3676,10 +3674,10 @@
         <v>0</v>
       </c>
       <c r="I125" s="4">
-        <v>1.01753277360797</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0195961121869299</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>16</v>
       </c>
@@ -3702,10 +3700,10 @@
         <v>0</v>
       </c>
       <c r="I126" s="4">
-        <v>1.01719831541213</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.01926096893671</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>17</v>
       </c>
@@ -3728,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="I127" s="4">
-        <v>1.01737667174799</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0194396882825301</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>9</v>
       </c>
@@ -3748,7 +3746,7 @@
         <v>9</v>
       </c>
       <c r="G128" s="4">
-        <v>1.01548166315037</v>
+        <v>1.0181501147621099</v>
       </c>
       <c r="H128" s="4">
         <v>0</v>
@@ -3757,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>5</v>
       </c>
@@ -3774,7 +3772,7 @@
         <v>5</v>
       </c>
       <c r="G129" s="4">
-        <v>1.0086175853864601</v>
+        <v>1.0050324276157601</v>
       </c>
       <c r="H129" s="4">
         <v>0</v>
@@ -3783,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>14</v>
       </c>
@@ -3800,7 +3798,7 @@
         <v>14</v>
       </c>
       <c r="G130" s="4">
-        <v>1.0086175853864601</v>
+        <v>1.0050324276157601</v>
       </c>
       <c r="H130" s="4">
         <v>0</v>
@@ -3809,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>10</v>
       </c>
@@ -3826,7 +3824,7 @@
         <v>10</v>
       </c>
       <c r="G131" s="4">
-        <v>1.00850705055867</v>
+        <v>1.0049222864356899</v>
       </c>
       <c r="H131" s="4">
         <v>0</v>
@@ -3835,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>11</v>
       </c>
@@ -3852,7 +3850,7 @@
         <v>11</v>
       </c>
       <c r="G132" s="4">
-        <v>1.00839653758991</v>
+        <v>1.00481216628287</v>
       </c>
       <c r="H132" s="4">
         <v>0</v>
